--- a/paper2/glm/settings/residual_predictorSettings.xlsx
+++ b/paper2/glm/settings/residual_predictorSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\github\locomotionAnalysis\paper2\glm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\github\locomotionAnalysis\paper2\glm\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2857CFF-D17C-4419-88CD-F5C3FB2E1917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABEF04-7FB0-4FDC-93F5-954111A3C1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11775" windowWidth="7500" windowHeight="6000" xr2:uid="{4669D966-A741-4C3C-B919-B304607B653B}"/>
+    <workbookView xWindow="1350" yWindow="3855" windowWidth="28800" windowHeight="15885" xr2:uid="{4669D966-A741-4C3C-B919-B304607B653B}"/>
   </bookViews>
   <sheets>
     <sheet name="predictors" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>1</v>
